--- a/Data/Transitions/19311942Translation.xlsx
+++ b/Data/Transitions/19311942Translation.xlsx
@@ -31,7 +31,7 @@
     <t>{2.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.9837473879730672}</t>
+    <t>{3.0: 0.9830426356589147}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 1.0, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 2.3536607779139445e-05}</t>
+    <t>{14.0: 1.0, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 2.403581579339233e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
@@ -145,25 +145,25 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.052093120367470505}</t>
+    <t>{75.0: 1.0, 917.0: 0.05246556618652087}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297, 172.0: 0.0017460035917788175}</t>
+    <t>{81.0: 0.9994958830448664, 172.0: 0.0017369111696087657}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9954755017423704, 178.0: 0.008754152442495772}</t>
+    <t>{85.0: 0.9954402787576053, 178.0: 0.008800518701521449}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -205,10 +205,10 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.0019358061696015986}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9596602972399151}</t>
+    <t>{91.0: 1.0, 92.0: 0.0019024240564590364}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9603559374041117}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -223,10 +223,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{97.0: 0.9961451975586251}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,22 +244,22 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 1.0, 92.0: 0.03840389659048333}</t>
+    <t>{104.0: 1.0, 92.0: 0.03774163853942927}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544, 543.0: -1.4683990330864291e-05}</t>
+    <t>{107.0: 1.0, 543.0: 0.0011476115334959117}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 1.0, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 1.0, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -313,13 +313,13 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7279926181162053}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982531055900621}</t>
-  </si>
-  <si>
-    <t>{173.0: 1.0, 404.0: 0.001996976987059545}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.7310464002597409}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982622127823905}</t>
+  </si>
+  <si>
+    <t>{173.0: 1.0, 404.0: 0.0020136374149495482}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,37 +349,37 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9910835362444057}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.023614895549500452, 850.0: 6.286827434143215e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9763851044504995, 850.0: 0.0025993613429630604}</t>
+    <t>{178.0: 0.9910361893324433}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.02333808543217699, 850.0: 6.225564636792795e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.976661914567823, 850.0: 0.0026053002055827224}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0024306208616427754, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.0024310140138617668, 593.0: 0.0009517252694525996, 778.0: 0.0005968011458582001}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.002432709592326763, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.0024031518324137634, 593.0: 0.0009514373615758185, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9216604108666339}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118, 857.0: 0.00537477625323952}</t>
+    <t>{202.0: 0.9217296702120339}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775, 857.0: 0.005373166020931479}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -388,13 +388,13 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9205716269919527}</t>
+    <t>{209.0: 0.9205013698819082}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -403,7 +403,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -415,13 +415,13 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.3432385374347069}</t>
+    <t>{265.0: 0.25544229440221145}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -430,10 +430,10 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9990600241708071}</t>
+    <t>{246.0: 0.9990544373902472}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
@@ -541,28 +544,28 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.6567614625652931}</t>
-  </si>
-  <si>
-    <t>{267.0: 0.9917627677100495}</t>
+    <t>{265.0: 0.7445577055977886}</t>
+  </si>
+  <si>
+    <t>{267.0: 0.9914588315681585}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9599522626511527}</t>
+    <t>{277.0: 0.9599185850192897}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239}</t>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -610,7 +613,7 @@
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 1.0, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 1.0, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,7 +658,7 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506, 857.0: 5.585426628960308e-06}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993, 857.0: 5.5879010765889695e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -694,7 +697,7 @@
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -703,10 +706,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -718,16 +718,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.6807987541759355}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3096939584397832}</t>
+    <t>{402.0: 0.9989634083134653}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.6779529275294144}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31245635026236357}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -736,10 +736,10 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.9929952794274403}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.9931527240250074}</t>
   </si>
   <si>
     <t>{410.0: 1.0}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.03761711648720459}</t>
+    <t>{415.0: 1.0, 277.0: 0.03764870538838348}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.9961880559085133}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8722677595628415, 212.0: 0.0008100445524503848}</t>
+    <t>{418.0: 0.996164500319625}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.87084743421507, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -778,13 +778,13 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9962857389651896}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -841,13 +841,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.9224346297517029}</t>
+    <t>{477.0: 0.9224175824175824}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -877,16 +877,16 @@
     <t>{488.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 1.0, 935.0: 0.005207010414020828}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 1.0, 935.0: 0.005155287312963662}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9919363615130189, 97.0: 0.0038666022232962784, 696.0: 0.0010047874462351652}</t>
+    <t>{492.0: 0.9919825422991563, 97.0: 0.0038548024413748794, 696.0: 0.0009761798221415134}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -907,19 +907,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -955,7 +955,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.9989074023490849}</t>
+    <t>{543.0: 0.998852388466504}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9980719794344473, 728.0: 0.008773674832535099, 752.0: 0.04920514761544285}</t>
+    <t>{580.0: 0.9981181109418407, 728.0: 0.008711424930198558, 752.0: 0.04937333839726547}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1066,16 +1066,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9978094329854772, 686.0: 0.009832174944905916}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{593.0: 0.9978100587089659, 686.0: 0.009728279100972828}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
+    <t>{597.0: 0.9973572083490643}</t>
   </si>
   <si>
     <t>{598.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1129,7 +1129,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009399758291929637, 789.0: 0.004051324983440062}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.010772210118615348, 861.0: 0.015839714675338297}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009455626097528029, 789.0: 0.004051002677320427}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.010616724323034713, 861.0: 0.015856347789562113}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.8040555944472704}</t>
+    <t>{634.0: 0.8100037610480787}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.001177581845678005}</t>
+    <t>{702.0: 0.001070622812488529}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1222,10 +1222,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.990167825055094}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658, 502.0: 4.369735659003756e-05}</t>
+    <t>{686.0: 0.9902717208990272}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516, 502.0: 4.332111677840183e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1249,10 +1249,10 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9819587628865979, 857.0: 0.0024171615930977408}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9960792883677937, 492.0: 0.008040101879201924}</t>
+    <t>{695.0: 0.9820117474302497, 857.0: 0.0024165923030372754}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.996028811858391, 492.0: 0.007993421885050317}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
+    <t>{702.0: 0.8093908462413278}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1285,7 +1285,7 @@
     <t>{707.0: 1.0}</t>
   </si>
   <si>
-    <t>{728.0: 0.9912093766648907}</t>
+    <t>{728.0: 0.9912721502248083}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1303,7 +1303,7 @@
     <t>{733.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.00143000143000143, 888.0: 0.010693069306930694}</t>
+    <t>{734.0: 1.0, 73.0: 0.0014347202295552368, 888.0: 0.010686720759944587}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1312,7 +1312,7 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -1321,7 +1321,7 @@
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16773074800977378}</t>
+    <t>{740.0: 1.0, 789.0: 0.1677175283732661}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
@@ -1351,7 +1351,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9507948523845572, 580.0: 0.0019280205655526992, 728.0: 1.6948502574118028e-05}</t>
+    <t>{752.0: 0.9506266616027346, 580.0: 0.0018818890581593333, 728.0: 1.6424844993191748e-05}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1366,7 +1366,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 1.0, 634.0: 0.0029425639321034596}</t>
+    <t>{757.0: 1.0, 634.0: 0.002853381809064126}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1405,7 +1405,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.018405471453420672, 184.0: 0.0020208824520040417, 593.0: 0.0012388417450701654}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.018192881941232527, 184.0: 0.0020373514431239388, 593.0: 0.001238503929458281}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213, 172.0: 8.908181590708252e-07}</t>
-  </si>
-  <si>
-    <t>{782.0: 1.0, 168.0: 0.001507017048130357, 930.0: 0.0002368261518505378}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591, 172.0: 8.760480008114152e-07}</t>
+  </si>
+  <si>
+    <t>{782.0: 1.0, 168.0: 0.0015194681861348527, 930.0: 0.00024171035642861895}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1453,13 +1453,13 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.04411397150712322}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.8282179270067861}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.03853325046612803}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.8282314689494136}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1474,13 +1474,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1501,7 +1501,7 @@
     <t>{843.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1519,19 +1519,19 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 1.0, 922.0: 0.002210986864996351}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.07833958913336612, 680.0: 0.002957121734844751}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 1.0, 922.0: 0.0022832177728220695}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.07827032978796614, 680.0: 0.002957121734844751}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1540,7 +1540,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9922024767270339, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 0.9922046537749547, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1552,7 +1552,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{862.0: 1.0}</t>
@@ -1567,10 +1567,10 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.9892277898813846, 267.0: 0.008237232289950576}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.9893069306930693}</t>
+    <t>{887.0: 0.9893832756769653, 267.0: 0.008541168431841476}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9893132792400554}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1585,7 +1585,7 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
@@ -1594,13 +1594,13 @@
     <t>{895.0: 0.9977052524222335}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
   </si>
   <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
@@ -1609,7 +1609,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1627,19 +1627,19 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.25117089641651236, 420.0: 0.12773224043715847}</t>
+    <t>{915.0: 1.0, 171.0: 0.24835756596661282, 420.0: 0.1291525657849299}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.9479068796325295}</t>
+    <t>{917.0: 0.9475344338134791}</t>
   </si>
   <si>
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1648,7 +1648,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9966448483752781}</t>
+    <t>{922.0: 0.9965367417686478}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1666,13 +1666,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 3.0: 0.0162526120269329, 418.0: 0.0038119440914866584, 922.0: 0.0011441647597254005}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.3589219455267844}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.640841228321365, 929.0: 0.0017969956479011652}</t>
+    <t>{928.0: 1.0, 3.0: 0.01695736434108527, 418.0: 0.0038354996803750267, 922.0: 0.0011800404585300068}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.3656768313248851}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.6340814583186862, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1681,19 +1681,19 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09421646692390045}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09502178943540394}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035962086312661835}</t>
+    <t>{937.0: 1.0, 85.0: 0.003634651862191165}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1708,19 +1708,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{972.0: 1.0, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{972.0: 1.0, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1732,7 +1732,7 @@
     <t>{975.0: 1.0}</t>
   </si>
   <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1759,7 +1759,7 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.9913802849367914}</t>
+    <t>{992.0: 0.9913944869102509}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -1768,7 +1768,7 @@
     <t>{9.0: 0.9995276334435522, 208.0: 0.0004723665564478035}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994828, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519683, 492.0: 9.25223268524091e-05}</t>
+    <t>{14.0: 0.9919302775984508, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098773, 696.0: 0.0057179007368205565, 492.0: 9.229939229500008e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1783,19 +1783,19 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.11471264367816092}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9985303723056825, 172.0: 0.0014696276943174393}</t>
+    <t>{75.0: 0.8878903617164682, 917.0: 0.11210963828353179}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613506, 85.0: 0.0005307151386493299}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985291714332409, 172.0: 0.0014708285667592743}</t>
   </si>
   <si>
     <t>{85.0: 0.9759786476868327, 178.0: 0.02402135231316726}</t>
   </si>
   <si>
-    <t>{91.0: 0.9998846584588139, 92.0: 0.00011534154118623192}</t>
+    <t>{91.0: 0.9998846584588141, 92.0: 0.00011534154118623196}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -1807,19 +1807,19 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.8253337120136326, 92.0: 0.17466628798636752}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9991815856777493, 543.0: 0.0008184143222506396}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645131, 110.0: 0.007528935835487134}</t>
+    <t>{104.0: 0.8344103392568659, 92.0: 0.16558966074313408}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9991869092387432, 543.0: 0.0008130907612562254}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645129, 110.0: 0.0075289358354871305}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1831,7 +1831,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589455, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051421, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{168.0: 1.0}</t>
@@ -1843,28 +1843,28 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9852869053457577, 502.0: 0.014713094654242276}</t>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9852869053457576, 502.0: 0.014713094654242276}</t>
   </si>
   <si>
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.9595163949441289, 180.0: 0.04046549158604738, 850.0: 1.8113469823655946e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9995525727069351, 850.0: 0.00044742729306487697}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9971744383835213, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749618}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676934, 182.0: 0.00376454483230664}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9874456491334584, 171.0: 0.007472928889210899, 593.0: 0.0033967858587322275, 778.0: 0.0016846361185983828}</t>
+    <t>{179.0: 0.9611769872639437, 180.0: 0.038805642260559096, 850.0: 1.7370475497116875e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.999552572706935, 850.0: 0.00044742729306487697}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9971634886605056, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794812}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602095, 182.0: 0.0035994764397905762}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9874023973491759, 171.0: 0.00749322274635456, 593.0: 0.0034060103392520736, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1873,10 +1873,10 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.0053851907255048626}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{204.0: 0.9946682464454976, 857.0: 0.005331753554502371}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.998085701663967, 688.0: 0.001914298336032985}</t>
@@ -1891,22 +1891,22 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.9893097838717171, 409.0: 0.010690216128282594}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345011, 490.0: 0.0027640346914105116, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.9891098484848485, 409.0: 0.010890151515151516}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.841323611564875, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628105, 297.0: 0.00018045618356780216, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524387, 297.0: 0.0001786147939395593, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427764, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
   </si>
   <si>
-    <t>{240.0: 0.23750306546350664, 241.0: 0.7624969345364934}</t>
+    <t>{240.0: 0.23750306546350655, 241.0: 0.7624969345364934}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1918,13 +1918,13 @@
     <t>{249.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 0.987364090508375, 479.0: 0.012356147657862119, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.987364090508375, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432056, 203.0: 0.15722996515679444}</t>
@@ -1933,7 +1933,7 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9968165539196179, 182.0: 0.003183446080382013}</t>
+    <t>{282.0: 0.9967186218211649, 182.0: 0.0032813781788351114}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
@@ -1942,19 +1942,19 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.0139225820061175}</t>
+    <t>{298.0: 0.9860788863109049, 297.0: 0.013921113689095125}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662857, 426.0: 0.0731432659158121, 204.0: 0.0010707941656292628, 857.0: 5.797652272921261e-06}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452714, 71.0: 0.017762842054728757}</t>
+    <t>{303.0: 0.9976869699306091, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879631, 426.0: 0.07086273685860801, 204.0: 0.001018084182646364, 857.0: 5.457270782499869e-06}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534322, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.4356883607616966}</t>
@@ -1972,28 +1972,28 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.36474474874689905, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.6431948574179481}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864617}</t>
+    <t>{419.0: 0.9852607709750567, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425476, 585.0: 0.0479628674574523}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047888774459320285}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2002,7 +2002,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.00018839487565938207}</t>
+    <t>{431.0: 0.9996376811594204, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2014,19 +2014,19 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.02211302211302211}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.997457315112772, 97.0: 0.002040642802482782, 696.0: 0.0005020420847452014}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.02208588957055215}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9974573007827376, 97.0: 0.002040642802482782, 696.0: 0.0005020564147796415}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.8695187165775397, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -2050,7 +2050,7 @@
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9851471416310198, 728.0: 0.0030357508333013054, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.9854333434913789, 728.0: 0.003029560306988587, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
@@ -2059,7 +2059,7 @@
     <t>{588.0: 0.9977079990831996, 507.0: 0.0022920009168003667}</t>
   </si>
   <si>
-    <t>{593.0: 0.9945545019247021, 686.0: 0.005445498075298094}</t>
+    <t>{593.0: 0.9945641986879098, 686.0: 0.005435801312089972}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774042}</t>
@@ -2080,7 +2080,7 @@
     <t>{618.0: 0.9843454790823212, 246.0: 0.0018893387314439945, 789.0: 0.013765182186234817}</t>
   </si>
   <si>
-    <t>{619.0: 0.9655096441914438, 887.0: 0.013007925875422115, 861.0: 0.021482429933134154}</t>
+    <t>{619.0: 0.9654101869025538, 887.0: 0.01304608360679127, 861.0: 0.021543729490654872}</t>
   </si>
   <si>
     <t>{623.0: 1.0}</t>
@@ -2101,52 +2101,52 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972789, 208.0: 0.04251700680272109}</t>
   </si>
   <si>
-    <t>{695.0: 0.9938114306516198, 857.0: 0.006188569348380051}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813855, 492.0: 0.01591384021861437}</t>
+    <t>{695.0: 0.9937865497076025, 857.0: 0.006213450292397661}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372271, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{728.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.9638009049773756, 73.0: 0.005656108597285069, 888.0: 0.03054298642533936}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851531, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
-  </si>
-  <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.298876404494382}</t>
-  </si>
-  <si>
-    <t>{752.0: 0.9917094354520329, 580.0: 0.008265095489124635, 728.0: 2.5469058842199382e-05}</t>
-  </si>
-  <si>
-    <t>{757.0: 0.9970781592403216, 634.0: 0.0029218407596785976}</t>
-  </si>
-  <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470252, 171.0: 0.019287707518498832, 184.0: 0.0006935458287982003, 593.0: 0.001521609805677143}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725945, 81.0: 0.000349340071943679, 172.0: 5.141554615687834e-07}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.9974744701877676, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
+    <t>{734.0: 0.9645232815964523, 73.0: 0.005543237250554325, 888.0: 0.02993348115299335}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
+  </si>
+  <si>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.298876404494382}</t>
+  </si>
+  <si>
+    <t>{752.0: 0.9916798732171155, 580.0: 0.008294626254990266, 728.0: 2.5500527894044985e-05}</t>
+  </si>
+  <si>
+    <t>{757.0: 0.9966315789473682, 634.0: 0.0033684210526315796}</t>
+  </si>
+  <si>
+    <t>{770.0: 0.9801712483100498, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468065, 171.0: 0.018791419312757702, 184.0: 0.0006756795339838953, 593.0: 0.0014824628064520752}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034933965181337877, 172.0: 5.145755918691338e-07}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.9974866134848652, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 0.8357348703170029, 500.0: 0.16426512968299709}</t>
+    <t>{787.0: 0.8360891445003593, 500.0: 0.16391085549964055}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -2155,10 +2155,10 @@
     <t>{789.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229308}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
+    <t>{835.0: 0.9900669157761305, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597996, 835.0: 0.007748404740200545}</t>
   </si>
   <si>
     <t>{837.0: 0.8728764921946738, 536.0: 0.127123507805326}</t>
@@ -2170,25 +2170,25 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290921, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.9913879834515866, 202.0: 0.008525501707300626, 680.0: 8.651484111278481e-05}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455602, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9928112252580559, 695.0: 0.0071887747419441045}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.991545127879941, 490.0: 0.008454872120059184}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.9913879834515867, 202.0: 0.008525501707300626, 680.0: 8.651484111278481e-05}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919552, 695.0: 0.007258241308044794}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9915361828184511, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9969504757257867, 267.0: 0.003049524274213223}</t>
+    <t>{887.0: 0.9969948311095084, 267.0: 0.0030051688904916456}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2206,28 +2206,28 @@
     <t>{905.0: 0.9854766589161154, 499.0: 0.014523341083884813}</t>
   </si>
   <si>
-    <t>{915.0: 0.5396825396825397, 171.0: 0.25418871252204583, 420.0: 0.2061287477954144}</t>
+    <t>{915.0: 0.5481497511361177, 171.0: 0.24951309240424147, 420.0: 0.20233715645964082}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418464, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478528, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 0.9650092081031308, 3.0: 0.025782688766114184, 418.0: 0.0066298342541436465, 922.0: 0.002578268876611418}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.8341249710616209, 930.0: 0.1658750289383792}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9943597400954186, 929.0: 0.005640259904581379}</t>
-  </si>
-  <si>
-    <t>{933.0: 0.8733408699141656, 702.0: 0.00550829940027856, 249.0: 0.12115083068555589}</t>
+    <t>{928.0: 0.9648148148148147, 3.0: 0.02592592592592593, 418.0: 0.006666666666666667, 922.0: 0.0025925925925925925}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.8350095297330828, 930.0: 0.1649904702669172}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9941756249859921, 929.0: 0.00582437501400823}</t>
+  </si>
+  <si>
+    <t>{933.0: 0.8738662178227145, 702.0: 0.005485663639816162, 249.0: 0.12064811853746932}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -2239,13 +2239,13 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172719, 634.0: 0.08685562738272833}</t>
+    <t>{943.0: 0.914935064935065, 634.0: 0.08506493506493507}</t>
   </si>
   <si>
     <t>{971.0: 0.9989698686582539, 152.0: 0.0010301313417460727}</t>
   </si>
   <si>
-    <t>{972.0: 0.9541375872382851, 615.0: 0.045862412761714856}</t>
+    <t>{972.0: 0.9537688442211056, 615.0: 0.046231155778894466}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4333,29 +4333,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>632</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>632</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4366,29 +4366,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>633</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4520,106 +4520,106 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>634</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>634</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>624</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>635</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>636</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>636</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>637</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>637</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4652,29 +4652,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>638</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>638</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4707,29 +4707,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>639</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>639</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4773,29 +4773,29 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>640</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>640</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4872,40 +4872,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>641</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>642</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4916,51 +4916,51 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>643</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>643</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>644</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>644</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -5004,29 +5004,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>645</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>645</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -5081,29 +5081,29 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>646</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>227</v>
+        <v>646</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
